--- a/2021-01-03.xlsx
+++ b/2021-01-03.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0E1661-E7AD-4669-9F8B-C836F5866C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA535F-0D4D-4F07-954D-56045E610368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="01.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="02.01.21" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">'01.01.21'!$A$1:$G$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">'02.01.21'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -133,10 +133,10 @@
     <t>* In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t xml:space="preserve">(für den 01.01. wurde nicht gemeldet) </t>
-  </si>
-  <si>
-    <t>(Nachmeldungen für den 01.01. bereits für morgen angekündigt)</t>
+    <t>(Nachmeldungen der mobilen Teams stehen noch aus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(keine Meldung für den 02.01.; Nachmeldung erfolgt am 04.01.2020) </t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="B6" s="18">
         <f ca="1">TODAY()</f>
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>26</v>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,22 +838,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>20045</v>
+        <v>24063</v>
       </c>
       <c r="C2" s="8">
-        <v>2958</v>
+        <v>4014</v>
       </c>
       <c r="D2" s="7">
-        <v>9087</v>
+        <v>11041</v>
       </c>
       <c r="E2" s="8">
-        <v>6185</v>
+        <v>7428</v>
       </c>
       <c r="F2" s="8">
-        <v>1189</v>
+        <v>1382</v>
       </c>
       <c r="G2" s="21">
-        <v>3403</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,25 +861,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="15">
-        <v>39005</v>
+        <v>57833</v>
       </c>
       <c r="C3" s="16">
-        <v>1050</v>
+        <v>11742</v>
       </c>
       <c r="D3" s="17">
-        <v>7840</v>
+        <v>12855</v>
       </c>
       <c r="E3" s="16">
-        <v>19500</v>
+        <v>25636</v>
       </c>
       <c r="F3" s="16">
-        <v>718</v>
+        <v>1091</v>
       </c>
       <c r="G3" s="22">
-        <v>14265</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -887,22 +884,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>13137</v>
+        <v>14616</v>
       </c>
       <c r="C4" s="8">
-        <v>2023</v>
+        <v>1443</v>
       </c>
       <c r="D4" s="7">
-        <v>8662</v>
+        <v>9817</v>
       </c>
       <c r="E4" s="8">
-        <v>3319</v>
+        <v>3647</v>
       </c>
       <c r="F4" s="8">
         <v>105</v>
       </c>
       <c r="G4" s="21">
-        <v>9817</v>
+        <v>10968</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,7 +923,7 @@
         <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -934,20 +931,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>1741</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>1837</v>
+      </c>
+      <c r="C6" s="8">
+        <v>96</v>
+      </c>
       <c r="D6" s="7">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E6" s="8">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="F6" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="21">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,20 +954,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>3042</v>
+        <v>3704</v>
       </c>
       <c r="C7" s="16">
-        <v>283</v>
+        <v>662</v>
       </c>
       <c r="D7" s="17">
-        <v>1129</v>
+        <v>1439</v>
       </c>
       <c r="E7" s="16">
-        <v>1703</v>
+        <v>2010</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="22">
-        <v>1341</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,22 +975,22 @@
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>24791</v>
+        <v>30085</v>
       </c>
       <c r="C8" s="8">
-        <v>3418</v>
+        <v>5294</v>
       </c>
       <c r="D8" s="7">
-        <v>6909</v>
+        <v>8443</v>
       </c>
       <c r="E8" s="8">
-        <v>14480</v>
+        <v>17635</v>
       </c>
       <c r="F8" s="8">
-        <v>955</v>
+        <v>1096</v>
       </c>
       <c r="G8" s="21">
-        <v>9680</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,22 +1019,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="13">
-        <v>3945</v>
+        <v>4962</v>
       </c>
       <c r="C10" s="8">
-        <v>379</v>
+        <v>1017</v>
       </c>
       <c r="D10" s="7">
-        <v>773</v>
+        <v>912</v>
       </c>
       <c r="E10" s="8">
-        <v>2105</v>
+        <v>2641</v>
       </c>
       <c r="F10" s="8">
-        <v>827</v>
+        <v>982</v>
       </c>
       <c r="G10" s="21">
-        <v>2362</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,20 +1042,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <v>33375</v>
+        <v>48691</v>
       </c>
       <c r="C11" s="16">
-        <v>7908</v>
+        <v>13142</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16">
-        <v>11846</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
+        <v>18806</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="22">
-        <v>21537</v>
+        <v>29893</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,39 +1061,42 @@
         <v>12</v>
       </c>
       <c r="B12" s="13">
-        <v>6898</v>
+        <v>7248</v>
       </c>
       <c r="C12" s="8">
-        <v>439</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
-        <v>3166</v>
+        <v>3516</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="21">
         <v>3732</v>
       </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15">
-        <v>3316</v>
+        <v>4149</v>
       </c>
       <c r="C13" s="16">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="D13" s="17">
-        <v>2508</v>
+        <v>3122</v>
       </c>
       <c r="E13" s="16">
-        <v>335</v>
+        <v>495</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="22">
-        <v>1294</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,22 +1104,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="13">
-        <v>4000</v>
+        <v>4343</v>
       </c>
       <c r="C14" s="8">
-        <v>710</v>
+        <v>343</v>
       </c>
       <c r="D14" s="7">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="E14" s="8">
-        <v>3320</v>
+        <v>3535</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="21">
-        <v>679</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1127,22 +1127,22 @@
         <v>10</v>
       </c>
       <c r="B15" s="15">
-        <v>11771</v>
+        <v>12822</v>
       </c>
       <c r="C15" s="16">
-        <v>625</v>
+        <v>1051</v>
       </c>
       <c r="D15" s="17">
-        <v>3782</v>
+        <v>4237</v>
       </c>
       <c r="E15" s="16">
-        <v>5760</v>
+        <v>6194</v>
       </c>
       <c r="F15" s="16">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="G15" s="22">
-        <v>5793</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,22 +1150,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="13">
-        <v>7964</v>
+        <v>8933</v>
       </c>
       <c r="C16" s="8">
-        <v>694</v>
+        <v>969</v>
       </c>
       <c r="D16" s="7">
-        <v>2130</v>
+        <v>2525</v>
       </c>
       <c r="E16" s="8">
-        <v>4690</v>
+        <v>5136</v>
       </c>
       <c r="F16" s="8">
-        <v>1798</v>
+        <v>2077</v>
       </c>
       <c r="G16" s="21">
-        <v>3384</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,27 +1193,27 @@
       </c>
       <c r="B18" s="14">
         <f>SUM(B2:B17)</f>
-        <v>188553</v>
+        <v>238809</v>
       </c>
       <c r="C18" s="14">
         <f>SUM(C2:C17)</f>
-        <v>21087</v>
+        <v>40665</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ref="D18" si="0">SUM(D2:D17)</f>
-        <v>44552</v>
+        <v>56197</v>
       </c>
       <c r="E18" s="10">
         <f>SUM(E2:E17)</f>
-        <v>86692</v>
+        <v>107019</v>
       </c>
       <c r="F18" s="10">
         <f>SUM(F2:F17)</f>
-        <v>6122</v>
+        <v>7317</v>
       </c>
       <c r="G18" s="23">
         <f>SUM(G2:G17)</f>
-        <v>82965</v>
+        <v>103894</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
